--- a/sew5p/UE01/user_credentials.xlsx
+++ b/sew5p/UE01/user_credentials.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,504 +436,468 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>lehrer</t>
+          <t>de_junious</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>lehrer</t>
+          <t>1pKT=TZ#qJ;m</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>seminar</t>
+          <t>nunez_gomez</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>seminar</t>
+          <t>;V*^[]C#5'ke</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1AM</t>
+          <t>ullagoss</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1am^1651frh#</t>
+          <t>Y^s`IeN'K-BS</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1BM</t>
+          <t>lanpher</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1bm1365&amp;dre&amp;</t>
+          <t>7`)U{-]oS@HW</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1CM</t>
+          <t>galvin</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1cm-379-grm.</t>
+          <t>HvVA.E9l_HL+</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2AM</t>
+          <t>laspina</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2am&amp;359&amp;tmp%</t>
+          <t>(;RpVoJoh\hD</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2BM</t>
+          <t>dodich</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2bm%3761wit&amp;</t>
+          <t>V#d/+$]d#Zz!</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2CM</t>
+          <t>bannowsky</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2cm(275-pch(</t>
+          <t>&amp;}Xipcc@\6zD</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3AM</t>
+          <t>waisath</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3am,375,zoi1</t>
+          <t>#A9=fr$"h&amp;zu</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3BM</t>
+          <t>von_reddigpiette</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3bm^361&amp;kam,</t>
+          <t>h,"[^N2'7yHG</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3CM</t>
+          <t>latona</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3cm)3771prs,</t>
+          <t>es)Ep+|bkxGA</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4AM</t>
+          <t>homewood</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4am-154&amp;mar#</t>
+          <t>Gw)s_)M'Z6a\</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4BM</t>
+          <t>pallaforzedian</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4bm,263#gri^</t>
+          <t>iG[Xy-l*NB'B</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4CM</t>
+          <t>senemounnaratquillian</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4cm_279#bug-</t>
+          <t>`-Fc];Q8&lt;Gt0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>5AM</t>
+          <t>isaac</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5am1156-ple(</t>
+          <t>}46KSvS)2OFG</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5BM</t>
+          <t>plancarte</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>5bm#160%stw,</t>
+          <t>IOqcz|YHO@R"</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5CM</t>
+          <t>berteottistirn</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>5cm1354-jen_</t>
+          <t>|J=t&lt;V7]F&lt;\M</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1AF</t>
+          <t>strycker</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1af-372.gfo%</t>
+          <t>PT:H_1AoKM#m</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1BF</t>
+          <t>von_verrill</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1bf&amp;2721vol.</t>
+          <t>{@!c)nasOvQ4</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1CF</t>
+          <t>deschner</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1cf-209(keg,</t>
+          <t>gd]z&amp;M^*!z$7</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2AF</t>
+          <t>franzi</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2af)357-bog%</t>
+          <t>.$m,5FH19#(d</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2BF</t>
+          <t>cringle</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2bf_219_ste^</t>
+          <t>%,YKcKln)8uI</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3AFI</t>
+          <t>kosh</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3afi%356,hit_</t>
+          <t>}t&lt;9LT'R$[xq</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3BFN</t>
+          <t>derouchie</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3bfn^277,baa^</t>
+          <t>%uT#h+vWu&lt;)d</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4AFI</t>
+          <t>doutt</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4afi)275/279(opp(</t>
+          <t>ERd-5&amp;x8_d'`</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4BFN</t>
+          <t>munley</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4bfn&amp;217%cer#</t>
+          <t>v/\{k%?Hx`F_</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1AI</t>
+          <t>dornbos</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1ai%254#kle-</t>
+          <t>m|x9qMR'#GE&lt;</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1BI</t>
+          <t>mahala</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1bi.371-hol.</t>
+          <t>TIQa6fpWQAF8</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1CI</t>
+          <t>ellingwood</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1ci1265=jav%</t>
+          <t>N|z&amp;x5dxV6:h</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2AI</t>
+          <t>de_cardinallisciola</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2ai_378=bay#</t>
+          <t>X&amp;Q%D~~W;oXr</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2BI</t>
+          <t>gundry</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2bi)363_kus%</t>
+          <t>q+Fnfw}0{VE.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2CI</t>
+          <t>pinedo</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2ci_271#nic#</t>
+          <t>?T=Zdu:"yyHq</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>3AI</t>
+          <t>faivre</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>3ai_260^buc1</t>
+          <t>}pG;ChYOK`rX</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3BI</t>
+          <t>pinsky</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3bi.360#bsb(</t>
+          <t>h^$X#\h(jf7}</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3CI</t>
+          <t>pinsky1</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3ci(225#bre^</t>
+          <t>-z/|aN[Xt,=|</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>4AI</t>
+          <t>pinsky2</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4ai(261)daz^</t>
+          <t>n/VZev1w`d2s</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>4BI</t>
+          <t>pinsky3</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4bi,257%oli,</t>
+          <t>jd8lp%VE`Ce+</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>4CN</t>
+          <t>norlien</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4cn=276.sdo,</t>
+          <t>YL`=+tX!Jp?t</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5AX</t>
+          <t>preato</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5ax%278%fin&amp;</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>5BI</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>5bi)256-nus^</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>5CN</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>5cn)259.slt1</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>1AO</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>1ao,2171kit1</t>
+          <t>Z913M`nX&lt;A1?</t>
         </is>
       </c>
     </row>
